--- a/biology/Botanique/Liste_d'espèces_de_plantes_décrites_entre_2001_et_2005/Liste_d'espèces_de_plantes_décrites_entre_2001_et_2005.xlsx
+++ b/biology/Botanique/Liste_d'espèces_de_plantes_décrites_entre_2001_et_2005/Liste_d'espèces_de_plantes_décrites_entre_2001_et_2005.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_2001_et_2005</t>
+          <t>Liste_d'espèces_de_plantes_décrites_entre_2001_et_2005</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">De nouvelles espèces vivantes sont régulièrement définies chaque année.
 L'apparition d'une nouvelle espèce dans la nomenclature peut se faire de trois manières principales :
@@ -500,7 +512,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_2001_et_2005</t>
+          <t>Liste_d'espèces_de_plantes_décrites_entre_2001_et_2005</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -520,19 +532,19 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Espèces vivantes décrites en 2001
-Astéracées (Composées)
-Séneçon de York (Senecio eboracensis Abbott et Lowe, 2001)
+          <t>Espèces vivantes décrites en 2001</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Astéracées (Composées)</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Séneçon de York (Senecio eboracensis Abbott et Lowe, 2001)
 Astéracée découverte en Angleterre (►Wikispecies).
-Source : Watsonia, 24 (1-3) : 375-387.
-Rosacées
-Potentilla koreana Ikeda, 2001
-Potentille découverte en Corée[1].
-Potentilla wismariensis Gregor et Henker, 2001
-Potentille découverte en Allemagne, endémique de ce pays.
-Rubiacées
-Sabicea thomensis Joffroy, 2001
-Découverte dans l'île de São Tomé (São Tomé et Principe) [2].</t>
+Source : Watsonia, 24 (1-3) : 375-387.</t>
         </is>
       </c>
     </row>
@@ -542,7 +554,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_2001_et_2005</t>
+          <t>Liste_d'espèces_de_plantes_décrites_entre_2001_et_2005</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -557,167 +569,426 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Espèces vivantes décrites en 2001</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Rosacées</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Potentilla koreana Ikeda, 2001
+Potentille découverte en Corée.
+Potentilla wismariensis Gregor et Henker, 2001
+Potentille découverte en Allemagne, endémique de ce pays.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_de_plantes_décrites_entre_2001_et_2005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_2001_et_2005</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèces vivantes décrites en 2001</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Rubiacées</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Sabicea thomensis Joffroy, 2001
+Découverte dans l'île de São Tomé (São Tomé et Principe) .</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_de_plantes_décrites_entre_2001_et_2005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_2001_et_2005</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>2002</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Espèces vivantes décrites en 2002
-Senecio kuanshanensis Chung &amp; Peng, 2002
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Espèces vivantes décrites en 2002</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Senecio kuanshanensis Chung &amp; Peng, 2002
 Astéracée découverte à Taïwan.
 Pseudostellaria sierrae Rabeler &amp; Hartman, 2002
 Caryophyllacée découverte en Californie.
 Macrocarpaea angustifolia Pringle, 2001
-Gentianacée découverte au Pérou[3].
+Gentianacée découverte au Pérou.
 Banksia rosserae Olde et Marriott, 2002
-Protéacée découverte en Australie[4].
+Protéacée découverte en Australie.
 Eidothea hardeniana Weston et Kooyman, 2002
 Espèce de protéacée découverte en 1988 puis collectée à nouveau en 2000 par Robert Kooyman en Nouvelle-Galles du Sud (Australie). Arbre pouvant atteindre 40 m. de haut. Une seule population d'environ 90 individus.
 Averrhoidium dalyi Acevedo-Rodríguez &amp; Ferrucci, 2002
-Sapindacée découverte en Amazonie brésilienne et péruvienne[5]
+Sapindacée découverte en Amazonie brésilienne et péruvienne
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_2001_et_2005</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_2001_et_2005</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_de_plantes_décrites_entre_2001_et_2005</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_2001_et_2005</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>2003</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Espèces vivantes décrites en 2003
-Pinacées
-Pinus fragilissima Businský, 2003
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Espèces vivantes décrites en 2003</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Pinacées</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Pinus fragilissima Businský, 2003
 Espèce de Pinaceae découverte sur l'île de Taïwan.
-Source : Novon: A Journal for Botanical Nomenclature: Vol. 13, No. 3, pp. 281–288.
-Astéracées
-Senecio eboracensis Abbot et Lowe, 2003
-Capparidacées
-Cleome pakistanica Khatoon et Perveen, 2003
-Capparidacée découverte au Pakistan[6].
-Iridacées
-Tigridia gracielae Rodríguez et Ortiz-Catedral, 2003
-Iridacée découverte dans l'État de México (Mexique) [7].
-Rubiacées
-Coprosma fowerakeri Norton &amp; de Lange, 2003
-Découverte en Nouvelle-Zélande [8].</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_2001_et_2005</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_2001_et_2005</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+Source : Novon: A Journal for Botanical Nomenclature: Vol. 13, No. 3, pp. 281–288.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_de_plantes_décrites_entre_2001_et_2005</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_2001_et_2005</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Espèces vivantes décrites en 2003</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Astéracées</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Senecio eboracensis Abbot et Lowe, 2003</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_de_plantes_décrites_entre_2001_et_2005</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_2001_et_2005</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Espèces vivantes décrites en 2003</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Capparidacées</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Cleome pakistanica Khatoon et Perveen, 2003
+Capparidacée découverte au Pakistan.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_de_plantes_décrites_entre_2001_et_2005</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_2001_et_2005</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Espèces vivantes décrites en 2003</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Iridacées</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Tigridia gracielae Rodríguez et Ortiz-Catedral, 2003
+Iridacée découverte dans l'État de México (Mexique) .</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_de_plantes_décrites_entre_2001_et_2005</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_2001_et_2005</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Espèces vivantes décrites en 2003</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Rubiacées</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Coprosma fowerakeri Norton &amp; de Lange, 2003
+Découverte en Nouvelle-Zélande .</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_de_plantes_décrites_entre_2001_et_2005</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_2001_et_2005</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>2004</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Espèces vivantes décrites en 2004
-Justicia leucoxiphus Cheek, Vollesen et Ghogue, 2004
-Acanthacée découverte au Cameroun[9].
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Espèces vivantes décrites en 2004</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Justicia leucoxiphus Cheek, Vollesen et Ghogue, 2004
+Acanthacée découverte au Cameroun.
 Aster stennongjiaensis Li &amp; Zhang, 2004
 Astéracée découverte en Chine.
 Saussurea wakasugiana Kadota, 2004
 Astéracée découverte dans la préfecture de Fukui (Honshu, Japon).
 Shangrilaia nana Al-Shehbaz, Yue &amp; Sun, 2004
-Brassicacée découverte en Chine. Nouveau genre[10].
+Brassicacée découverte en Chine. Nouveau genre.
 Cistus horrens Demoly, 2004
 Cistacée découverte dans l'île de la Grande Canarie (Canaries, Espagne).
 Peliosanthes divaricatanthera N. Tanaka, 2004
-Convallariacée découverte en Chine et au Vietnam[11].
+Convallariacée découverte en Chine et au Vietnam.
 Micrandra inundata Berry &amp; Wiedenhoeft, 2004
-Euphorbiacée découverte au Venezuela[12].
+Euphorbiacée découverte au Venezuela.
 Illicium hottense Guerrero, Judd et Morris, 2004
-Illiciacée découverte dans le massif de la Hotte (Haïti) [13].
+Illiciacée découverte dans le massif de la Hotte (Haïti) .
 Epipactis duriensis Bernardos, Tyteca, Revuelta &amp; Amich, 2004
 Orchidée endémique du Portugal.
 Psydrax bridsoniana Sonké et Martin, 2004
-Rubiacée, arbre myrmécophile découvert dans les monts Kupe au Cameroun[14].</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_2001_et_2005</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_2001_et_2005</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+Rubiacée, arbre myrmécophile découvert dans les monts Kupe au Cameroun.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_de_plantes_décrites_entre_2001_et_2005</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_2001_et_2005</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>2005</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Espèces vivantes décrites en 2005
-Agave valenciana Cházaro-Basáñez, Vásquez-Garcia et Vargas-Rodriguez, 2005
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Espèces vivantes décrites en 2005</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Agave valenciana Cházaro-Basáñez, Vásquez-Garcia et Vargas-Rodriguez, 2005
 Agavacée découverte dans l'État de Jalisco au Mexique.
 Source : Novon, 15 (4)
 Anthurium moonenii Croat &amp; Gonçalves, 2005
-Aracée découverte en Guyane française[15]. L'épithète spécifique honore le naturaliste Joep Moonen, qui a découvert l'espèce.
+Aracée découverte en Guyane française. L'épithète spécifique honore le naturaliste Joep Moonen, qui a découvert l'espèce.
 Nardophyllum cabrerae Bonifacino, 2005
 Astéracée découverte en Argentine.
 Senecio kerdousianus Gomiz &amp; Llamas, 2005
 Astéracée découverte dans l'Atlas au Maroc.
 Vaccinium tectiflorum Danet, 2005
-Éricacée découverte en Nouvelle-Guinée [16].
+Éricacée découverte en Nouvelle-Guinée .
 Astragalus mario-sousae Estrada, Villarreal et Yen, 2005
 Fabacée découverte au Mexique
 Sabatia arkansana Pringle et Witsell, 2005
 Gentianacée découverte dans le comté de Saline en Arkansas.
 Oxalis ferae Llorens, Gil &amp; Cardona, 2005
-Oxalidacée découverte dans l'île de Majorque (Baléares, Espagne), où elle est endémique[17].
+Oxalidacée découverte dans l'île de Majorque (Baléares, Espagne), où elle est endémique.
 Rafflesia magnifica Madulid, Fandang et Agoo, 2005
 Rafflésiacée découverte dans l'île de Mindanao aux Philippines.
 Rafflesia mira Fernando et Ong, 2005
@@ -726,7 +997,7 @@
 Ranunculacée
 Source : Novon, 15 (4) : 650-653.
 Thalictrum kubotae Kadota, 2005
-Ranunculacée découverte dans l'île de Honshu au Japon[18].
+Ranunculacée découverte dans l'île de Honshu au Japon.
 Solanum arcanum
 Espèce de tomate sauvage (Solanacées) découverte au Pérou.
 Solanum huaylasense
@@ -736,31 +1007,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_2001_et_2005</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_2001_et_2005</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_d'espèces_de_plantes_décrites_entre_2001_et_2005</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_d%27esp%C3%A8ces_de_plantes_d%C3%A9crites_entre_2001_et_2005</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Liens internes</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Nouvelles espèces biologiques
 Nouvelles espèces de plantes : 2006-2010.</t>
